--- a/_data/BNBUSDT_4h.xlsx
+++ b/_data/BNBUSDT_4h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1084"/>
+  <dimension ref="A1:F1127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22081,6 +22081,866 @@
         <v>16668.03</v>
       </c>
     </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1085">
+        <v>538.4</v>
+      </c>
+      <c r="C1085">
+        <v>543.4</v>
+      </c>
+      <c r="D1085">
+        <v>522.2</v>
+      </c>
+      <c r="E1085">
+        <v>523.9</v>
+      </c>
+      <c r="F1085">
+        <v>77675.621</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1086">
+        <v>523.8</v>
+      </c>
+      <c r="C1086">
+        <v>537.1</v>
+      </c>
+      <c r="D1086">
+        <v>522</v>
+      </c>
+      <c r="E1086">
+        <v>531.6</v>
+      </c>
+      <c r="F1086">
+        <v>35832.741</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1087">
+        <v>531.6</v>
+      </c>
+      <c r="C1087">
+        <v>536.4</v>
+      </c>
+      <c r="D1087">
+        <v>531</v>
+      </c>
+      <c r="E1087">
+        <v>535.2</v>
+      </c>
+      <c r="F1087">
+        <v>9566.069</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1088">
+        <v>535.2</v>
+      </c>
+      <c r="C1088">
+        <v>538</v>
+      </c>
+      <c r="D1088">
+        <v>534.8</v>
+      </c>
+      <c r="E1088">
+        <v>536</v>
+      </c>
+      <c r="F1088">
+        <v>6077.518</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1089">
+        <v>537.4</v>
+      </c>
+      <c r="C1089">
+        <v>541.5</v>
+      </c>
+      <c r="D1089">
+        <v>535.1</v>
+      </c>
+      <c r="E1089">
+        <v>535.6</v>
+      </c>
+      <c r="F1089">
+        <v>24767.867</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1090">
+        <v>535.7</v>
+      </c>
+      <c r="C1090">
+        <v>537.7</v>
+      </c>
+      <c r="D1090">
+        <v>534.2</v>
+      </c>
+      <c r="E1090">
+        <v>536.6</v>
+      </c>
+      <c r="F1090">
+        <v>13144.509</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1091">
+        <v>536.6</v>
+      </c>
+      <c r="C1091">
+        <v>537.8</v>
+      </c>
+      <c r="D1091">
+        <v>535</v>
+      </c>
+      <c r="E1091">
+        <v>535.8</v>
+      </c>
+      <c r="F1091">
+        <v>17108.452</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1092">
+        <v>535.8</v>
+      </c>
+      <c r="C1092">
+        <v>535.9</v>
+      </c>
+      <c r="D1092">
+        <v>531.1</v>
+      </c>
+      <c r="E1092">
+        <v>533.5</v>
+      </c>
+      <c r="F1092">
+        <v>13539.582</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1093">
+        <v>533.6</v>
+      </c>
+      <c r="C1093">
+        <v>533.9</v>
+      </c>
+      <c r="D1093">
+        <v>531.6</v>
+      </c>
+      <c r="E1093">
+        <v>532.7</v>
+      </c>
+      <c r="F1093">
+        <v>4273.418</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1094">
+        <v>532.9</v>
+      </c>
+      <c r="C1094">
+        <v>533.2</v>
+      </c>
+      <c r="D1094">
+        <v>524.7</v>
+      </c>
+      <c r="E1094">
+        <v>526.8</v>
+      </c>
+      <c r="F1094">
+        <v>27867.97</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1095">
+        <v>526.8</v>
+      </c>
+      <c r="C1095">
+        <v>527</v>
+      </c>
+      <c r="D1095">
+        <v>513.4</v>
+      </c>
+      <c r="E1095">
+        <v>522.3</v>
+      </c>
+      <c r="F1095">
+        <v>63164.734</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1096">
+        <v>522.3</v>
+      </c>
+      <c r="C1096">
+        <v>522.6</v>
+      </c>
+      <c r="D1096">
+        <v>516.1</v>
+      </c>
+      <c r="E1096">
+        <v>519</v>
+      </c>
+      <c r="F1096">
+        <v>17177.512</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1097">
+        <v>519.1</v>
+      </c>
+      <c r="C1097">
+        <v>522</v>
+      </c>
+      <c r="D1097">
+        <v>510.3</v>
+      </c>
+      <c r="E1097">
+        <v>520.9</v>
+      </c>
+      <c r="F1097">
+        <v>42419.228</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1098">
+        <v>520.9</v>
+      </c>
+      <c r="C1098">
+        <v>524</v>
+      </c>
+      <c r="D1098">
+        <v>516.1</v>
+      </c>
+      <c r="E1098">
+        <v>520.2</v>
+      </c>
+      <c r="F1098">
+        <v>23621.356</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1099">
+        <v>520.3</v>
+      </c>
+      <c r="C1099">
+        <v>523.3</v>
+      </c>
+      <c r="D1099">
+        <v>507.7</v>
+      </c>
+      <c r="E1099">
+        <v>512.4</v>
+      </c>
+      <c r="F1099">
+        <v>29448.067</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1100">
+        <v>512.3</v>
+      </c>
+      <c r="C1100">
+        <v>516.5</v>
+      </c>
+      <c r="D1100">
+        <v>511.4</v>
+      </c>
+      <c r="E1100">
+        <v>515.2</v>
+      </c>
+      <c r="F1100">
+        <v>18951.789</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1101">
+        <v>515.1</v>
+      </c>
+      <c r="C1101">
+        <v>515.9</v>
+      </c>
+      <c r="D1101">
+        <v>501.5</v>
+      </c>
+      <c r="E1101">
+        <v>503.1</v>
+      </c>
+      <c r="F1101">
+        <v>80401.34</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1102">
+        <v>503.1</v>
+      </c>
+      <c r="C1102">
+        <v>525.4</v>
+      </c>
+      <c r="D1102">
+        <v>502.9</v>
+      </c>
+      <c r="E1102">
+        <v>519.3</v>
+      </c>
+      <c r="F1102">
+        <v>98970.88</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1103">
+        <v>519.1</v>
+      </c>
+      <c r="C1103">
+        <v>520.1</v>
+      </c>
+      <c r="D1103">
+        <v>517.6</v>
+      </c>
+      <c r="E1103">
+        <v>518.3</v>
+      </c>
+      <c r="F1103">
+        <v>11262.374</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1104">
+        <v>522.3</v>
+      </c>
+      <c r="C1104">
+        <v>523.9</v>
+      </c>
+      <c r="D1104">
+        <v>519.8</v>
+      </c>
+      <c r="E1104">
+        <v>522.2</v>
+      </c>
+      <c r="F1104">
+        <v>13011.087</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1105">
+        <v>522.3</v>
+      </c>
+      <c r="C1105">
+        <v>524.2</v>
+      </c>
+      <c r="D1105">
+        <v>521.9</v>
+      </c>
+      <c r="E1105">
+        <v>523.9</v>
+      </c>
+      <c r="F1105">
+        <v>1007.043</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1106">
+        <v>526.4</v>
+      </c>
+      <c r="C1106">
+        <v>538.3</v>
+      </c>
+      <c r="D1106">
+        <v>525.2</v>
+      </c>
+      <c r="E1106">
+        <v>534.1</v>
+      </c>
+      <c r="F1106">
+        <v>52774.763</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1107">
+        <v>534.1</v>
+      </c>
+      <c r="C1107">
+        <v>538.4</v>
+      </c>
+      <c r="D1107">
+        <v>531.6</v>
+      </c>
+      <c r="E1107">
+        <v>535</v>
+      </c>
+      <c r="F1107">
+        <v>46945.48</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1108">
+        <v>535</v>
+      </c>
+      <c r="C1108">
+        <v>536.2</v>
+      </c>
+      <c r="D1108">
+        <v>531.6</v>
+      </c>
+      <c r="E1108">
+        <v>535.9</v>
+      </c>
+      <c r="F1108">
+        <v>22313.805</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1109">
+        <v>535.9</v>
+      </c>
+      <c r="C1109">
+        <v>537.9</v>
+      </c>
+      <c r="D1109">
+        <v>521.2</v>
+      </c>
+      <c r="E1109">
+        <v>522</v>
+      </c>
+      <c r="F1109">
+        <v>52347.766</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1110">
+        <v>522</v>
+      </c>
+      <c r="C1110">
+        <v>525.7</v>
+      </c>
+      <c r="D1110">
+        <v>519.6</v>
+      </c>
+      <c r="E1110">
+        <v>524.4</v>
+      </c>
+      <c r="F1110">
+        <v>25841.588</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1111">
+        <v>524.4</v>
+      </c>
+      <c r="C1111">
+        <v>526.1</v>
+      </c>
+      <c r="D1111">
+        <v>517.9</v>
+      </c>
+      <c r="E1111">
+        <v>518.7</v>
+      </c>
+      <c r="F1111">
+        <v>24258.248</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1112">
+        <v>518.8</v>
+      </c>
+      <c r="C1112">
+        <v>523.7</v>
+      </c>
+      <c r="D1112">
+        <v>501.3</v>
+      </c>
+      <c r="E1112">
+        <v>512.6</v>
+      </c>
+      <c r="F1112">
+        <v>129095.058</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1113">
+        <v>512.7</v>
+      </c>
+      <c r="C1113">
+        <v>513.7</v>
+      </c>
+      <c r="D1113">
+        <v>508.3</v>
+      </c>
+      <c r="E1113">
+        <v>510.2</v>
+      </c>
+      <c r="F1113">
+        <v>34634.842</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1114">
+        <v>510.2</v>
+      </c>
+      <c r="C1114">
+        <v>512.3</v>
+      </c>
+      <c r="D1114">
+        <v>496.9</v>
+      </c>
+      <c r="E1114">
+        <v>499</v>
+      </c>
+      <c r="F1114">
+        <v>77841.611</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1115">
+        <v>498.9</v>
+      </c>
+      <c r="C1115">
+        <v>513.4</v>
+      </c>
+      <c r="D1115">
+        <v>495.8</v>
+      </c>
+      <c r="E1115">
+        <v>508.9</v>
+      </c>
+      <c r="F1115">
+        <v>125237.795</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1116">
+        <v>509</v>
+      </c>
+      <c r="C1116">
+        <v>512.6</v>
+      </c>
+      <c r="D1116">
+        <v>505.3</v>
+      </c>
+      <c r="E1116">
+        <v>509.6</v>
+      </c>
+      <c r="F1116">
+        <v>45237.095</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1117">
+        <v>509.6</v>
+      </c>
+      <c r="C1117">
+        <v>513.5</v>
+      </c>
+      <c r="D1117">
+        <v>507</v>
+      </c>
+      <c r="E1117">
+        <v>507.6</v>
+      </c>
+      <c r="F1117">
+        <v>23072.62</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6">
+      <c r="A1118" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1118">
+        <v>507.6</v>
+      </c>
+      <c r="C1118">
+        <v>512.9</v>
+      </c>
+      <c r="D1118">
+        <v>503.4</v>
+      </c>
+      <c r="E1118">
+        <v>504</v>
+      </c>
+      <c r="F1118">
+        <v>39281.877</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6">
+      <c r="A1119" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1119">
+        <v>504.1</v>
+      </c>
+      <c r="C1119">
+        <v>508</v>
+      </c>
+      <c r="D1119">
+        <v>501</v>
+      </c>
+      <c r="E1119">
+        <v>506.7</v>
+      </c>
+      <c r="F1119">
+        <v>30267.673</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6">
+      <c r="A1120" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1120">
+        <v>506.7</v>
+      </c>
+      <c r="C1120">
+        <v>507.7</v>
+      </c>
+      <c r="D1120">
+        <v>502.6</v>
+      </c>
+      <c r="E1120">
+        <v>504.5</v>
+      </c>
+      <c r="F1120">
+        <v>15940.201</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6">
+      <c r="A1121" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1121">
+        <v>504.5</v>
+      </c>
+      <c r="C1121">
+        <v>510.3</v>
+      </c>
+      <c r="D1121">
+        <v>499.7</v>
+      </c>
+      <c r="E1121">
+        <v>501.3</v>
+      </c>
+      <c r="F1121">
+        <v>47496.706</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6">
+      <c r="A1122" s="2">
+        <v>45540.66666666666</v>
+      </c>
+      <c r="B1122">
+        <v>501.4</v>
+      </c>
+      <c r="C1122">
+        <v>503.6</v>
+      </c>
+      <c r="D1122">
+        <v>496.7</v>
+      </c>
+      <c r="E1122">
+        <v>499.5</v>
+      </c>
+      <c r="F1122">
+        <v>32040.449</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6">
+      <c r="A1123" s="2">
+        <v>45540.83333333334</v>
+      </c>
+      <c r="B1123">
+        <v>499.4</v>
+      </c>
+      <c r="C1123">
+        <v>501.6</v>
+      </c>
+      <c r="D1123">
+        <v>498.1</v>
+      </c>
+      <c r="E1123">
+        <v>499.9</v>
+      </c>
+      <c r="F1123">
+        <v>8542.011</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6">
+      <c r="A1124" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1124">
+        <v>502.4</v>
+      </c>
+      <c r="C1124">
+        <v>508</v>
+      </c>
+      <c r="D1124">
+        <v>500.6</v>
+      </c>
+      <c r="E1124">
+        <v>507.2</v>
+      </c>
+      <c r="F1124">
+        <v>17860.734</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6">
+      <c r="A1125" s="2">
+        <v>45541.16666666666</v>
+      </c>
+      <c r="B1125">
+        <v>505.4</v>
+      </c>
+      <c r="C1125">
+        <v>508.4</v>
+      </c>
+      <c r="D1125">
+        <v>496.9</v>
+      </c>
+      <c r="E1125">
+        <v>501.4</v>
+      </c>
+      <c r="F1125">
+        <v>37195.682</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6">
+      <c r="A1126" s="2">
+        <v>45541.33333333334</v>
+      </c>
+      <c r="B1126">
+        <v>501.4</v>
+      </c>
+      <c r="C1126">
+        <v>506.8</v>
+      </c>
+      <c r="D1126">
+        <v>500.7</v>
+      </c>
+      <c r="E1126">
+        <v>504.1</v>
+      </c>
+      <c r="F1126">
+        <v>31446.474</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6">
+      <c r="A1127" s="2">
+        <v>45541.5</v>
+      </c>
+      <c r="B1127">
+        <v>504.2</v>
+      </c>
+      <c r="C1127">
+        <v>504.7</v>
+      </c>
+      <c r="D1127">
+        <v>504.1</v>
+      </c>
+      <c r="E1127">
+        <v>504.6</v>
+      </c>
+      <c r="F1127">
+        <v>43.611</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
